--- a/Ohms Law/Ohm's Law readings.xlsx
+++ b/Ohms Law/Ohm's Law readings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/05e480bd00f65c9d/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/05e480bd00f65c9d/Desktop/my projects/SummerSchool_2024/Ohms Law/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC1048E02159614E5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDD0B259-96BC-4430-9EBC-64BFD88A79F5}"/>
@@ -143,6 +143,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,7 +415,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
